--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlEmpLnYg5Pt.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlEmpLnYg5Pt.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -91,18 +91,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>DATE</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔人員</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>VARCHAR2</t>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>建檔人員</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -118,245 +115,211 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>ProcessDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
     <t>Decimald</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Find</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>WorkYM</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">WorkYM = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工姓名</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HlAppNum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HlAppAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServiceAppAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HlEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindHlEmpNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HlEmpNo =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkYM,AreaUnitNo,HlEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkYM ASC , AreaUnitNo ASC , HlEmpNo ASC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Find</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>AreaUnitNo</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AreaUnitNo = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>房貸撥款金額</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>車貸撥款件數</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateIdentifier</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工目標檔案</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaUnitNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HlEmpName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BranchName</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoalAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClAppNum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClAppAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServiceAppNum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CalDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>年月份</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>部室代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>部室中文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>駐在地</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>區部中文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>目標金額</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>房貸撥款件數</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>車貸撥款金額</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>信義撥款件數</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>信義撥款金額</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>年月日</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>建檔日期時間</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後更新人員</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>HlEmpLnYg5Pt</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>HlAppNum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>HlAppAmt</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServiceAppAmt</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貸撥款金額</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>車貸撥款件數</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateIdentifier</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoalAmt</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClAppNum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClAppAmt</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServiceAppNum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalDate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateEmpNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月份</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工代號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>部室代號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>區部中文</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>目標金額</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貸撥款件數</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>車貸撥款金額</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>信義撥款件數</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>信義撥款金額</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔日期時間</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後更新人員</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fullname</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>區域中心</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaItem</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心中文</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepItem</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>部室中文</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>區部代號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistItem</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>StationName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>駐在地</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>eric 2022.1.6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定值1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料日期</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkYM,EmpNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貨專員目標檔案</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -452,7 +415,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,6 +425,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,9 +568,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -625,6 +591,27 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -944,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -962,23 +949,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="3" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -989,13 +976,13 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="12" t="s">
-        <v>41</v>
+      <c r="B3" s="38"/>
+      <c r="C3" s="34" t="s">
+        <v>75</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1005,10 +992,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1016,10 +1003,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="3"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1027,10 +1014,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1038,10 +1025,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1072,537 +1059,621 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>1</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>19</v>
+      <c r="B9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="E9" s="28">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F9" s="28"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="25">
+      <c r="G9" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="20" customFormat="1">
+      <c r="A10" s="33">
+        <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>19</v>
+      <c r="B10" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="E10" s="28">
         <v>6</v>
       </c>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="25">
+      <c r="F10" s="31"/>
+      <c r="G10" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="20" customFormat="1">
+      <c r="A11" s="33">
+        <f t="shared" ref="A11:A31" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="28">
+        <v>40</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="20" customFormat="1">
+      <c r="A12" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="28">
+        <v>6</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="20" customFormat="1">
+      <c r="A13" s="33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="28">
+        <v>12</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="20" customFormat="1">
+      <c r="A14" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="28">
+        <v>6</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="20" customFormat="1">
+      <c r="A15" s="33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="28">
+        <v>12</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="20" customFormat="1">
+      <c r="A16" s="33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="28">
+        <v>6</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="20" customFormat="1">
+      <c r="A17" s="33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="28">
+        <v>30</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="20" customFormat="1">
+      <c r="A18" s="33">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="28">
+        <v>30</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="33">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="27">
+        <v>14</v>
+      </c>
+      <c r="F19" s="27">
+        <v>2</v>
+      </c>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="27">
+        <v>14</v>
+      </c>
+      <c r="F20" s="27">
+        <v>2</v>
+      </c>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="33">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="27">
+        <v>14</v>
+      </c>
+      <c r="F21" s="27">
+        <v>2</v>
+      </c>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="33">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="28">
-        <v>6</v>
-      </c>
-      <c r="F11" s="28"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="25">
-        <v>4</v>
-      </c>
-      <c r="B12" s="27" t="s">
+      <c r="C22" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="27">
+        <v>14</v>
+      </c>
+      <c r="F22" s="27">
+        <v>2</v>
+      </c>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="33">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="D23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="27">
+        <v>14</v>
+      </c>
+      <c r="F23" s="27">
+        <v>2</v>
+      </c>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="27">
+        <v>14</v>
+      </c>
+      <c r="F24" s="27">
+        <v>2</v>
+      </c>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="33">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="28">
-        <v>15</v>
-      </c>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" spans="1:7" s="21" customFormat="1">
-      <c r="A13" s="25">
-        <v>5</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="28">
-        <v>6</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" s="21" customFormat="1">
-      <c r="A14" s="25">
-        <v>6</v>
-      </c>
-      <c r="B14" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="28">
-        <v>20</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="25">
-        <v>7</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="28">
-        <v>20</v>
-      </c>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="25">
-        <v>8</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="28">
-        <v>20</v>
-      </c>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="25">
-        <v>9</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="28">
+      <c r="D25" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="27">
         <v>14</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F25" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="25">
-        <v>10</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="28">
-        <v>14</v>
-      </c>
-      <c r="F18" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="25">
-        <v>11</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="28">
-        <v>14</v>
-      </c>
-      <c r="F19" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="25">
-        <v>12</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="28">
-        <v>14</v>
-      </c>
-      <c r="F20" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="25">
-        <v>13</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="28">
-        <v>14</v>
-      </c>
-      <c r="F21" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="25">
-        <v>14</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="28">
-        <v>14</v>
-      </c>
-      <c r="F22" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="25">
-        <v>15</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="27" t="s">
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="33">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="28">
-        <v>14</v>
-      </c>
-      <c r="F23" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="25">
-        <v>16</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="28">
-        <v>10</v>
-      </c>
-      <c r="F24" s="28"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="25">
-        <v>17</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="28">
-        <v>7</v>
-      </c>
-      <c r="F25" s="28"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="25">
-        <v>18</v>
-      </c>
-      <c r="B26" s="27" t="s">
+      <c r="D26" s="29" t="s">
         <v>26</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>28</v>
       </c>
       <c r="E26" s="28">
         <v>8</v>
       </c>
       <c r="F26" s="28"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="25">
+      <c r="G26" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="33">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B27" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="27" t="s">
+      <c r="B27" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="27">
+        <v>7</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="33">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E27" s="28">
+      <c r="B28" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="27">
         <v>8</v>
       </c>
-      <c r="F27" s="28"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="25">
+      <c r="F28" s="27"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="33">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="E29" s="27">
+        <v>6</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="33">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E28" s="28">
+      <c r="B30" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="27">
+        <v>8</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="33">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="27">
         <v>6</v>
       </c>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="25">
-        <v>21</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="28">
-        <v>8</v>
-      </c>
-      <c r="F29" s="28"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="25">
-        <v>22</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="28">
-        <v>6</v>
-      </c>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="22"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="22"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="22"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="24"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="23"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1622,11 +1693,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1649,40 +1720,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="26"/>
+      <c r="A2" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlEmpLnYg5Pt.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlEmpLnYg5Pt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -122,204 +122,216 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>HlAppNum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>HlAppAmt</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServiceAppAmt</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貸撥款金額</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>車貸撥款件數</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateIdentifier</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoalAmt</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClAppNum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClAppAmt</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServiceAppNum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateEmpNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月份</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工代號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>部室代號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>區部中文</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>目標金額</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貸撥款件數</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>車貸撥款金額</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>信義撥款件數</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>信義撥款金額</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔日期時間</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後更新人員</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fullname</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>區域中心</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaItem</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心中文</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepItem</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>部室中文</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>區部代號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistItem</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>StationName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>駐在地</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>eric 2022.1.6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定值1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料日期</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkYM,EmpNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貨專員目標檔案</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>HlEmpLnYg5Pt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HlAppNum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HlAppAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServiceAppAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>房貸撥款金額</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>車貸撥款件數</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateIdentifier</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoalAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClAppNum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClAppAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServiceAppNum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>CalDate</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>年月份</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>部室代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>區部中文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>目標金額</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>房貸撥款件數</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>車貸撥款金額</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>信義撥款件數</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>信義撥款金額</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>建檔日期時間</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後更新人員</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fullname</t>
+    <t>CalDate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCalDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>員工姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>區域中心</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaItem</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>中心中文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DepItem</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>部室中文</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>區部代號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DistItem</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>StationName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>駐在地</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>eric 2022.1.6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定值1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkYM,EmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>房貨專員目標檔案</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <t>CalDate =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -568,6 +580,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -582,9 +597,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -933,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -954,10 +966,10 @@
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -982,7 +994,7 @@
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1007,7 +1019,9 @@
         <v>5</v>
       </c>
       <c r="B5" s="38"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
@@ -1059,36 +1073,36 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="24">
+      <c r="A9" s="25">
         <v>1</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" s="28">
         <v>6</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="20" customFormat="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="21" customFormat="1">
       <c r="A10" s="33">
         <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>21</v>
@@ -1098,19 +1112,19 @@
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="20" customFormat="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="21" customFormat="1">
       <c r="A11" s="33">
         <f t="shared" ref="A11:A31" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>21</v>
@@ -1120,19 +1134,19 @@
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="20" customFormat="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="21" customFormat="1">
       <c r="A12" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>21</v>
@@ -1142,41 +1156,41 @@
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="20" customFormat="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="21" customFormat="1">
       <c r="A13" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="28">
         <v>12</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="20" customFormat="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="21" customFormat="1">
       <c r="A14" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>21</v>
@@ -1186,41 +1200,41 @@
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="20" customFormat="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="21" customFormat="1">
       <c r="A15" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="28">
         <v>12</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="20" customFormat="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="21" customFormat="1">
       <c r="A16" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>21</v>
@@ -1230,51 +1244,51 @@
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="20" customFormat="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="21" customFormat="1">
       <c r="A17" s="33">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="28">
         <v>30</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="20" customFormat="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="21" customFormat="1">
       <c r="A18" s="33">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>68</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>70</v>
       </c>
       <c r="E18" s="28">
         <v>30</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1283,10 +1297,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>25</v>
@@ -1305,10 +1319,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>25</v>
@@ -1327,10 +1341,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>25</v>
@@ -1349,10 +1363,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>25</v>
@@ -1371,10 +1385,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>25</v>
@@ -1393,10 +1407,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>25</v>
@@ -1415,10 +1429,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>25</v>
@@ -1437,10 +1451,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>26</v>
@@ -1450,7 +1464,7 @@
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1459,10 +1473,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>25</v>
@@ -1472,7 +1486,7 @@
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1481,10 +1495,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>19</v>
@@ -1501,7 +1515,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>20</v>
@@ -1521,7 +1535,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>22</v>
@@ -1544,7 +1558,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>21</v>
@@ -1556,124 +1570,124 @@
       <c r="G31" s="19"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="21"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="21"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="21"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="21"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1695,9 +1709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1720,7 +1734,12 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="25"/>
+      <c r="A2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
